--- a/biology/Zoologie/Guillecrinus/Guillecrinus.xlsx
+++ b/biology/Zoologie/Guillecrinus/Guillecrinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Guillecrinus est un genre de Crinoïdes (Échinodermes) de la famille des Guillecrinidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Guillecrinus a été créé en 1985 par le zoologiste français Michel Roux (d) avec pour espèce type Guillecrinus reunionensis.
 </t>
@@ -542,7 +556,9 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les deux espèces de ce genre sont des comatules qui ont la particularité d'être sessiles : comme les crinoïdes non comatules, elles ont restauré l'usage d'une tige calcaire au bout de laquelle se trouve la thèque et les cinq bras. Ce sont des espèces abyssales.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (14 septembre 2021)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (14 septembre 2021) :
 Guillecrinus reunionensis Roux, 1985 - espèce type
 Guillecrinus neocaledonicus Bourseau et al., 1991</t>
         </is>
